--- a/output/aggregate_tables/top10_species_status_by_number.xlsx
+++ b/output/aggregate_tables/top10_species_status_by_number.xlsx
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.62818999</v>
+        <v>1.62818959</v>
       </c>
     </row>
     <row r="9">
@@ -923,7 +923,7 @@
         <v>23.63636363636364</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>22.32199582</v>
+        <v>22.32199542</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/top10_species_status_by_number.xlsx
+++ b/output/aggregate_tables/top10_species_status_by_number.xlsx
@@ -781,19 +781,19 @@
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <v>40</v>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>46.66666666666666</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>46.66666666666666</v>
@@ -905,19 +905,19 @@
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>26</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37.27272727272727</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>39.09090909090909</v>
+        <v>36.36363636363637</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>40</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>23.63636363636364</v>
